--- a/Discharge/Gavi_01_2022-06-07_1043.xlsx
+++ b/Discharge/Gavi_01_2022-06-07_1043.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\Ecuador22\Ecuador2022\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D17110-EC16-CD4A-BDCC-CEE9B5147C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8852F7-CF38-40C6-A484-A732B3EBA99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{7B53C71C-F7CF-734F-B494-F08F8AA11E8D}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7810" xr2:uid="{7B53C71C-F7CF-734F-B494-F08F8AA11E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -413,12 +414,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -448,15 +449,16 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>A2/100</f>
+        <v>0.25</v>
+      </c>
+      <c r="F2">
+        <f>SUM(E2:E20)</f>
+        <v>1.6000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -466,15 +468,17 @@
       <c r="C3" s="1">
         <v>0.01</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.0000000000000001E-4</v>
+      <c r="D3">
+        <f>(A3/100+(A4/100-A3/100)/2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="0">(D3-D2)*(B3/100)*C3</f>
+        <v>5.9999999999999988E-5</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -484,15 +488,17 @@
       <c r="C4" s="1">
         <v>0.05</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.9999999999999998E-4</v>
+      <c r="D4">
+        <f>(A4/100+(A5/100-A4/100)/2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000014E-4</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -502,15 +508,17 @@
       <c r="C5" s="1">
         <v>0.1</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.7850000000000002E-3</v>
+      <c r="D5">
+        <f>(A5/100+(A6/100-A5/100)/2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5">
+        <f>(D5-D4)*(B5/100)*C5</f>
+        <v>7.0000000000000032E-4</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -520,15 +528,17 @@
       <c r="C6" s="1">
         <v>0.01</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.4000000000000001E-4</v>
+      <c r="D6">
+        <f t="shared" ref="D6:D19" si="1">(A6/100+(A7/100-A6/100)/2)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999913E-5</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>70</v>
       </c>
@@ -538,15 +548,17 @@
       <c r="C7" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="1">
-        <v>1.075</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7.4999999999999993E-5</v>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4.200000000000004E-4</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>80</v>
       </c>
@@ -556,15 +568,17 @@
       <c r="C8" s="1">
         <v>0.01</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999968E-5</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>85</v>
       </c>
@@ -574,130 +588,152 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
